--- a/Test/TestExcelFiles/MissingWithItemForList/MissingWithItemForList.xlsx
+++ b/Test/TestExcelFiles/MissingWithItemForList/MissingWithItemForList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cburge\Documents\repos\customer-tests-excel\Test\TestExcelFiles\MissingWithItemForList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B1A588C5-9BE7-45C2-BE6D-081743702391}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B07C824-7B62-4A68-A5FD-57FC1E9E3464}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{93574C7F-CD34-4A26-A791-2CAAC18DAAC8}"/>
   </bookViews>
   <sheets>
     <sheet name="MissingWithItemForList" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>When</t>
   </si>
   <si>
-    <t>Assert</t>
-  </si>
-  <si>
     <t>=</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>There is a list property setup, but the 'With Item' keyword is missing (it should be shifted left to cell D6)</t>
+  </si>
+  <si>
+    <t>Then</t>
   </si>
 </sst>
 </file>
@@ -120,7 +120,110 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="78">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -946,11 +1049,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1389079D-C9FD-4AFA-AFB3-2F9AFFAD165C}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -965,268 +1066,79 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:XFD4 A5:C7 G5:XFD7 A8:XFD1048576">
-    <cfRule type="cellIs" dxfId="64" priority="56" operator="equal">
-      <formula>"Assert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="57" operator="equal">
-      <formula>"When"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
-      <formula>"Given a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
-      <formula>"Specification"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="60" priority="60" operator="beginsWith" text="With Properties">
-      <formula>LEFT(A1,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="59" priority="61" operator="endsWith" text=" table of">
-      <formula>RIGHT(A1,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="58" priority="62" operator="endsWith" text=" of">
-      <formula>RIGHT(A1,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
-      <formula>AND((RIGHT(A1048576, 3) = " of"), A2 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
-      <formula>AND(RIGHT(XFD1, 3) = " of", A2 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD4 A5:C7 G5:XFD7 A8:XFD1048576">
-    <cfRule type="notContainsBlanks" dxfId="55" priority="65">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD4 A5:C7 G5:XFD7 A8:XFD1048576">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
-      <formula>"PercentagePrecision"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD4 A5:C7 G5:XFD7 A8:XFD1048576">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
-      <formula>"StringFormat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:F7 E6:G7">
-    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
-      <formula>"Assert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
-      <formula>"When"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="45" operator="equal">
-      <formula>"Given a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
-      <formula>"Specification"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="47" priority="47" operator="beginsWith" text="With Properties">
-      <formula>LEFT(D5,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="46" priority="48" operator="endsWith" text=" table of">
-      <formula>RIGHT(D5,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="45" priority="49" operator="endsWith" text=" of">
-      <formula>RIGHT(D5,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="50">
-      <formula>AND((RIGHT(D4, 3) = " of"), D6 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="51">
-      <formula>AND(RIGHT(C5, 3) = " of", D6 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:F7 E6:G7">
-    <cfRule type="notContainsBlanks" dxfId="42" priority="52">
-      <formula>LEN(TRIM(D5))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:F7 E6:G7">
-    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
-      <formula>"PercentagePrecision"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:F7 E6:G7">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
-      <formula>"StringFormat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
-    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
-      <formula>"Assert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
-      <formula>"When"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
-      <formula>"Given a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="33" operator="equal">
-      <formula>"Specification"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="34" operator="beginsWith" text="With Properties">
-      <formula>LEFT(D5,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="33" priority="35" operator="endsWith" text=" table of">
-      <formula>RIGHT(D5,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="32" priority="36" operator="endsWith" text=" of">
-      <formula>RIGHT(D5,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="37">
-      <formula>AND((RIGHT(D4, 3) = " of"), D6 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="38">
-      <formula>AND(RIGHT(C5, 3) = " of", D6 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
-    <cfRule type="notContainsBlanks" dxfId="29" priority="39">
-      <formula>LEN(TRIM(D5))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
-      <formula>"PercentagePrecision"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>"StringFormat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
-      <formula>"Assert"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
-      <formula>"When"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
-      <formula>"Given a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
-      <formula>"Specification"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="21" operator="beginsWith" text="With Properties">
-      <formula>LEFT(E6,LEN("With Properties"))="With Properties"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="20" priority="22" operator="endsWith" text=" table of">
-      <formula>RIGHT(E6,LEN(" table of"))=" table of"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="19" priority="23" operator="endsWith" text=" of">
-      <formula>RIGHT(E6,LEN(" of"))=" of"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24">
-      <formula>AND((RIGHT(E5, 3) = " of"), E7 = "With Properties")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="25">
-      <formula>AND(RIGHT(D6, 3) = " of", E7 = "With Properties")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="notContainsBlanks" dxfId="16" priority="26">
-      <formula>LEN(TRIM(E6))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
-      <formula>"PercentagePrecision"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"="</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>"StringFormat"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
-      <formula>"Assert"</formula>
+      <formula>"Then"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"When"</formula>
@@ -1238,27 +1150,27 @@
       <formula>"Specification"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="8" priority="8" operator="beginsWith" text="With Properties">
-      <formula>LEFT(F7,LEN("With Properties"))="With Properties"</formula>
+      <formula>LEFT(A1,LEN("With Properties"))="With Properties"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="7" priority="9" operator="endsWith" text=" table of">
-      <formula>RIGHT(F7,LEN(" table of"))=" table of"</formula>
+      <formula>RIGHT(A1,LEN(" table of"))=" table of"</formula>
     </cfRule>
     <cfRule type="endsWith" dxfId="6" priority="10" operator="endsWith" text=" of">
-      <formula>RIGHT(F7,LEN(" of"))=" of"</formula>
+      <formula>RIGHT(A1,LEN(" of"))=" of"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="11">
-      <formula>AND((RIGHT(F6, 3) = " of"), F8 = "With Properties")</formula>
+      <formula>AND((RIGHT(A1048576, 3) = " of"), A2 = "With Properties")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="12">
-      <formula>AND(RIGHT(E7, 3) = " of", F8 = "With Properties")</formula>
+      <formula>AND(RIGHT(XFD1, 3) = " of", A2 = "With Properties")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="notContainsBlanks" dxfId="3" priority="13">
-      <formula>LEN(TRIM(F7))&gt;0</formula>
+      <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"PercentagePrecision"</formula>
     </cfRule>
@@ -1266,7 +1178,7 @@
       <formula>"="</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="A1:XFD1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"StringFormat"</formula>
     </cfRule>
